--- a/medicine/Psychotrope/Abbaye_de_Genne_Mont-Sainte_Marie/Abbaye_de_Genne_Mont-Sainte_Marie.xlsx
+++ b/medicine/Psychotrope/Abbaye_de_Genne_Mont-Sainte_Marie/Abbaye_de_Genne_Mont-Sainte_Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'abbaye de Genne Mont-Sainte Marie, fondée au début du XIIe siècle, est une ancienne abbaye cistercienne située à Montigny-lès-Arsures, dans le Jura en Bourgogne-Franche-Comté. Cette abbaye constitue une part notable du riche patrimoine de la ville et de sa région viticole[1].
+L'abbaye de Genne Mont-Sainte Marie, fondée au début du XIIe siècle, est une ancienne abbaye cistercienne située à Montigny-lès-Arsures, dans le Jura en Bourgogne-Franche-Comté. Cette abbaye constitue une part notable du riche patrimoine de la ville et de sa région viticole.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Contexte local</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Montigny-lès-Arsures est une ville qui a une longue tradition d'exploitation viticole, enrichie par la présence de plusieurs abbayes et châteaux. L'abbaye de Genne Mont-Sainte Marie s'inscrit dans ce contexte, avec des liens étroits à la famille du pape Calixte II, fondateur de l'ordre cistercien[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montigny-lès-Arsures est une ville qui a une longue tradition d'exploitation viticole, enrichie par la présence de plusieurs abbayes et châteaux. L'abbaye de Genne Mont-Sainte Marie s'inscrit dans ce contexte, avec des liens étroits à la famille du pape Calixte II, fondateur de l'ordre cistercien.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire de l'abbaye</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye a été fondée en 1215 sur des terres appartenant à la famille du pape Calixte II. Elle a connu une période de prospérité grâce à ses domaines viticoles, avant de subir les ravages de la guerre de Cent Ans[1]. Confisquée comme "bien national" pendant la Révolution française, elle a été ensuite acquise par la famille Lornet[2], qui exploite aujourd'hui 16 hectares du cépage jurassien Trousseau.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye a été fondée en 1215 sur des terres appartenant à la famille du pape Calixte II. Elle a connu une période de prospérité grâce à ses domaines viticoles, avant de subir les ravages de la guerre de Cent Ans. Confisquée comme "bien national" pendant la Révolution française, elle a été ensuite acquise par la famille Lornet, qui exploite aujourd'hui 16 hectares du cépage jurassien Trousseau.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Architecture et aménagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bâtiments de l'abbaye présentent une architecture cistercienne, avec des influences romanes et gothiques. Ils sont construits en pierre ocre locale, et l'abbaye est également dotée d'un jardin médiéval[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bâtiments de l'abbaye présentent une architecture cistercienne, avec des influences romanes et gothiques. Ils sont construits en pierre ocre locale, et l'abbaye est également dotée d'un jardin médiéval.
 			Abbaye et dépendances
 			Entrée
 			Nef et vitrail de style gothique
@@ -612,9 +630,11 @@
           <t>Fonctions et activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis sa fondation, l'abbaye s'est principalement consacrée à la viticulture. Elle a également eu un rôle éducatif et de soins aux malades. De plus, elle servait de halte aux pèlerins en route vers Saint-Jacques de Compostelle[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa fondation, l'abbaye s'est principalement consacrée à la viticulture. Elle a également eu un rôle éducatif et de soins aux malades. De plus, elle servait de halte aux pèlerins en route vers Saint-Jacques de Compostelle.
 			Cave à vin et foudres de vin du Jura, du domaine viticole, sous l'abbaye
 			Cave à vin du domaine viticole, sous l'abbaye
 			Anciens clavelins de vin jaune de la verrerie de La Vieille-Loye
@@ -648,9 +668,11 @@
           <t>Patrimoine et mémoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye conserve une collection de manuscrits enluminés, d'objets liturgiques et de mobilier médiéval[2]. Son histoire est également mise en valeur grâce à diverses expositions et ressources locales[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye conserve une collection de manuscrits enluminés, d'objets liturgiques et de mobilier médiéval. Son histoire est également mise en valeur grâce à diverses expositions et ressources locales.
 </t>
         </is>
       </c>
